--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="-21000" windowWidth="20240" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9780" yWindow="-20980" windowWidth="20240" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,8 +110,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,6 +137,29 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,14 +180,208 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="97">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1174,15 +1399,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1198,7 +1429,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1216,7 +1447,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1234,7 +1465,7 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -1257,7 +1488,7 @@
       <c r="D2">
         <v>0.72030000000000005</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.70220000000000005</v>
       </c>
       <c r="F2">
@@ -1275,7 +1506,7 @@
       <c r="J2">
         <v>0.21290000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0.37019999999999997</v>
       </c>
       <c r="L2">
@@ -1293,7 +1524,7 @@
       <c r="P2">
         <v>0.32040000000000002</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>0.47510000000000002</v>
       </c>
       <c r="R2">
@@ -1316,7 +1547,7 @@
       <c r="D3">
         <v>0.69140000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.71640000000000004</v>
       </c>
       <c r="F3">
@@ -1334,7 +1565,7 @@
       <c r="J3">
         <v>0.2273</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.38569999999999999</v>
       </c>
       <c r="L3">
@@ -1352,7 +1583,7 @@
       <c r="P3">
         <v>0.32879999999999998</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>0.48130000000000001</v>
       </c>
       <c r="R3">
@@ -1375,7 +1606,7 @@
       <c r="D4">
         <v>0.66520000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.64349999999999996</v>
       </c>
       <c r="F4">
@@ -1393,7 +1624,7 @@
       <c r="J4">
         <v>0.21129999999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>0.34939999999999999</v>
       </c>
       <c r="L4">
@@ -1411,7 +1642,7 @@
       <c r="P4">
         <v>0.30759999999999998</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>0.43790000000000001</v>
       </c>
       <c r="R4">
@@ -1434,7 +1665,7 @@
       <c r="D5">
         <v>0.70289999999999997</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.70209999999999995</v>
       </c>
       <c r="F5">
@@ -1452,7 +1683,7 @@
       <c r="J5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.38129999999999997</v>
       </c>
       <c r="L5">
@@ -1470,7 +1701,7 @@
       <c r="P5">
         <v>0.33119999999999999</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>0.4748</v>
       </c>
       <c r="R5">
@@ -1494,7 +1725,7 @@
       <c r="D6" s="1">
         <v>0.67679999999999996</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.67320000000000002</v>
       </c>
       <c r="F6" s="1">
@@ -1512,7 +1743,7 @@
       <c r="J6" s="1">
         <v>0.21310000000000001</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.35630000000000001</v>
       </c>
       <c r="L6" s="1">
@@ -1530,7 +1761,7 @@
       <c r="P6" s="1">
         <v>0.31569999999999998</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>0.45540000000000003</v>
       </c>
       <c r="R6" s="1">
@@ -1553,7 +1784,7 @@
       <c r="D7">
         <v>0.68859999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.69930000000000003</v>
       </c>
       <c r="F7">
@@ -1571,7 +1802,7 @@
       <c r="J7">
         <v>0.24129999999999999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.36830000000000002</v>
       </c>
       <c r="L7">
@@ -1589,7 +1820,7 @@
       <c r="P7">
         <v>0.34749999999999998</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>0.46510000000000001</v>
       </c>
       <c r="R7">
@@ -1612,7 +1843,7 @@
       <c r="D8">
         <v>0.70720000000000005</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.70140000000000002</v>
       </c>
       <c r="F8">
@@ -1630,7 +1861,7 @@
       <c r="J8">
         <v>0.23150000000000001</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.3589</v>
       </c>
       <c r="L8">
@@ -1648,7 +1879,7 @@
       <c r="P8">
         <v>0.34329999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>0.46510000000000001</v>
       </c>
       <c r="R8">
@@ -1671,7 +1902,7 @@
       <c r="D9">
         <v>0.70569999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.71499999999999997</v>
       </c>
       <c r="F9">
@@ -1689,7 +1920,7 @@
       <c r="J9">
         <v>0.2218</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.3498</v>
       </c>
       <c r="L9">
@@ -1707,7 +1938,7 @@
       <c r="P9">
         <v>0.32490000000000002</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>0.44790000000000002</v>
       </c>
       <c r="R9">
@@ -1722,6 +1953,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1734,13 +1966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="-20980" windowWidth="20240" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -972,11 +972,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2102357224"/>
-        <c:axId val="2102243208"/>
+        <c:axId val="2073035800"/>
+        <c:axId val="2076218216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2102357224"/>
+        <c:axId val="2073035800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +985,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102243208"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076218216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +1003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102243208"/>
+        <c:axId val="2076218216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1010,7 +1020,17 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2102357224"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073035800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1019,6 +1039,16 @@
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1399,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -1952,6 +1982,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1966,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
